--- a/测试单-电子书_daisy_161222.xlsx
+++ b/测试单-电子书_daisy_161222.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="255">
   <si>
     <t>编号</t>
   </si>
@@ -1543,6 +1543,14 @@
       </rPr>
       <t>，tts声音丢失，按键反应迟钝。而且画面显示有点乱，有时退到主菜单有tts后画面仍未更新过来。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2540,22 +2548,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3205,10 +3198,10 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
+      <selection pane="bottomRight" activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3635,7 +3628,7 @@
       <c r="O11" s="59"/>
       <c r="P11" s="58"/>
     </row>
-    <row r="12" spans="1:19" s="67" customFormat="1" ht="40.5">
+    <row r="12" spans="1:19" s="67" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="104">
         <v>10</v>
       </c>
@@ -3757,7 +3750,7 @@
       </c>
       <c r="S14" s="83"/>
     </row>
-    <row r="15" spans="1:19" s="67" customFormat="1" ht="27">
+    <row r="15" spans="1:19" s="67" customFormat="1" ht="27" hidden="1">
       <c r="A15" s="104">
         <v>13</v>
       </c>
@@ -4692,7 +4685,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="18" customFormat="1" ht="81">
+    <row r="38" spans="1:19" s="18" customFormat="1" ht="81" hidden="1">
       <c r="A38" s="104">
         <v>36</v>
       </c>
@@ -4856,7 +4849,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="18" customFormat="1" ht="94.5">
+    <row r="42" spans="1:19" s="18" customFormat="1" ht="94.5" hidden="1">
       <c r="A42" s="104">
         <v>40</v>
       </c>
@@ -5239,7 +5232,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="94.5">
+    <row r="51" spans="1:16" ht="94.5" hidden="1">
       <c r="A51" s="104">
         <v>49</v>
       </c>
@@ -5279,7 +5272,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="27">
+    <row r="52" spans="1:16" ht="27" hidden="1">
       <c r="A52" s="104">
         <v>50</v>
       </c>
@@ -5444,7 +5437,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="54">
+    <row r="56" spans="1:16" ht="54" hidden="1">
       <c r="A56" s="104">
         <v>54</v>
       </c>
@@ -6024,7 +6017,16 @@
       <c r="H72" s="102" t="s">
         <v>41</v>
       </c>
+      <c r="L72" s="104" t="s">
+        <v>253</v>
+      </c>
       <c r="N72" s="105"/>
+      <c r="O72" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P72" s="104" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="73" spans="1:16" s="104" customFormat="1" ht="27">
       <c r="A73" s="104">
@@ -6083,14 +6085,15 @@
   </sheetData>
   <autoFilter ref="A2:P74">
     <filterColumn colId="8">
-      <filters blank="1">
-        <filter val="待测"/>
-        <filter val="待测试"/>
-        <filter val="待定"/>
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="是"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/测试单-电子书_daisy_161222.xlsx
+++ b/测试单-电子书_daisy_161222.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="254">
   <si>
     <t>编号</t>
   </si>
@@ -1334,10 +1334,6 @@
   </si>
   <si>
     <t>【魏】12.22：40号问题，按照方案一，以目前的程序架构设计，真的很难弄。69号问题我这边用16号机器测试没问题啊，我再试试看。至于你说直接退到“目录浏览”根目录界面，这个我以前考虑过，无法实现，两个原因：1.从目录进去的时候因为存在目录树，是递归调用，很难做。2.也有可能是从收藏和最近浏览进入的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2548,7 +2544,12 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3052,10 +3053,10 @@
         <v>42724</v>
       </c>
       <c r="F11" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3201,7 +3202,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="L66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P74" sqref="P74"/>
+      <selection pane="bottomRight" activeCell="O71" sqref="O71:P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5457,7 +5458,7 @@
         <v>92</v>
       </c>
       <c r="G56" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H56" s="51" t="s">
         <v>41</v>
@@ -5531,7 +5532,7 @@
         <v>138</v>
       </c>
       <c r="G58" s="123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H58" s="118" t="s">
         <v>227</v>
@@ -5733,7 +5734,7 @@
         <v>177</v>
       </c>
       <c r="G64" s="97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H64" s="51" t="s">
         <v>41</v>
@@ -5785,20 +5786,13 @@
         <v>178</v>
       </c>
       <c r="G66" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H66" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="104" t="s">
-        <v>238</v>
-      </c>
-      <c r="L66" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O66" s="53">
-        <v>42724</v>
-      </c>
+      <c r="I66" s="104"/>
+      <c r="O66" s="53"/>
       <c r="P66" s="12" t="s">
         <v>191</v>
       </c>
@@ -5820,10 +5814,10 @@
         <v>42698</v>
       </c>
       <c r="F67" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="G67" s="120" t="s">
         <v>243</v>
-      </c>
-      <c r="G67" s="120" t="s">
-        <v>244</v>
       </c>
       <c r="I67" s="108" t="s">
         <v>221</v>
@@ -5839,7 +5833,7 @@
         <v>42724</v>
       </c>
       <c r="P67" s="108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="108" customFormat="1" ht="94.5" hidden="1">
@@ -5862,7 +5856,7 @@
         <v>179</v>
       </c>
       <c r="G68" s="121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I68" s="108" t="s">
         <v>222</v>
@@ -5903,7 +5897,7 @@
         <v>223</v>
       </c>
       <c r="G69" s="120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I69" s="108" t="s">
         <v>221</v>
@@ -5912,14 +5906,14 @@
         <v>42724</v>
       </c>
       <c r="L69" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N69" s="88"/>
       <c r="O69" s="113">
         <v>42724</v>
       </c>
       <c r="P69" s="108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="108" customFormat="1" ht="40.5" hidden="1">
@@ -5986,10 +5980,19 @@
         <v>197</v>
       </c>
       <c r="G71" s="107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H71" s="102" t="s">
         <v>41</v>
+      </c>
+      <c r="L71" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="O71" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P71" s="104" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="104" customFormat="1" ht="81">
@@ -6018,14 +6021,14 @@
         <v>41</v>
       </c>
       <c r="L72" s="104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N72" s="105"/>
       <c r="O72" s="53">
         <v>42729</v>
       </c>
       <c r="P72" s="104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="104" customFormat="1" ht="27">
@@ -6075,7 +6078,7 @@
         <v>228</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H74" s="102" t="s">
         <v>41</v>
@@ -6098,12 +6101,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161222.xlsx
+++ b/测试单-电子书_daisy_161222.xlsx
@@ -11,14 +11,14 @@
     <sheet name="电子书-Daisy文档" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'电子书-Daisy文档'!$A$2:$P$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'电子书-Daisy文档'!$A$2:$P$83</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="276">
   <si>
     <t>编号</t>
   </si>
@@ -1258,75 +1258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>跳转章节页码后，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>跳转位置不对。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>均跳到对应页码第一行文本所在句的开头开始读。而大字体下，这一句的开头通常不在跳转页码时输入的页码内。这样导致，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>语音播报的页码与实际显示的页码不一致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。（【样例】珍爱此生中文）=》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建议</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>从第一行文本所在句的下一句开始读。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">按【上】键切上一句时，只能在当前章节范围内切，不能跨章。=》按上下键切句应该是全文范围内切换。（【样例】珍爱此生中文）
 【魏】=》1.8版本的文档上写的是左右键切换章节，上下键切换句子。我们理解是在当前章节切换句子，就像页码跳转一样。程序架构也是按照这个设计的，目前要改成可以这个文章切换句子，这个很难办啊。
 </t>
@@ -1547,6 +1478,513 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供的锁屏方法不好使。代码我已经加上了，等固件更新锁屏方法好使后再测测。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>跳转章节页码后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跳转位置不对。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>均跳到对应页码第一行文本所在句的开头开始读。而大字体下，这一句的开头通常不在跳转页码时输入的页码内。这样导致，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语音播报的页码与实际显示的页码不一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。（【样例】珍爱此生中文）=》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从第一行文本所在句的下一句开始读。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下一句读一样会有朗读页码和显示页码不一致的问题。而且daisy无法从设置的当前页开头读，必须从一个句子的开头读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lisa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daisy文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>跳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>章节页码=》跳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>章节页码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏，列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加收藏后，文件夹内dasiy文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能完全列出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。具体操作：
+内存Daisy文件夹中十几daisy文档。通过“目录浏览”可以查看到。但是首先把daisy文件夹整个添加到收藏后，通过“我的收藏”进入，只能查看到children_sample里的“儿科按摩学”一个文档。其他的不能列出。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>音频是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wav格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的daisy文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能播放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？提示“文件不存在”。【样例】children_sample文档 00001.WAV，00002.WAV。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有单引号，双引号的地方显示乱码。同样文档放到上代机中，则正常，无乱符。
+【样例1】My key of Life（英文）。Publisher's Note中的“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”,Part I、II、III中“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I、II、III</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">”都是乱符。篇章列表中也是乱符。
+【样例2】To Love This Life（英文）。Preface章节，中字号P1“...called her </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he greatest woman of the twentieth century.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”中的"t乱码。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放，文件不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有些章节会提示“文件不存在”。全文朗读到该章节，提示文件不存在后即退到篇章列表。
+【样例1】假如给我三天光明，mp2格式音频数据。第二个“假如给我三天光明”章节。
+【样例2】北京2008年残奥会常识手册，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mp2格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音频数据。“北京2008残奥会简介”章节
+【样例3】北京2008年残奥会运动员指南，mp2格式音频数据。“简介”章节。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（接上条）提示“文件不存在”后退到篇章列表，没有继续播放下一章节。=》应该自动打开下一章播放。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。【样例】导盲犬之梦：（1）从头读到 中篇--中国梦--动用“小金库”章节，读完第一页停播。按下键可以继续。按返回键一次退到列表再进入此章节，不读，有反显在第一句上。退出，直到主菜单，均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无tts声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。重启恢复正常。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>又复现。（2）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这次从头读到，停在“中篇--中国梦--狼与狗的PK”章节。现象同上。
+重启后恢复正常。但退到章节列表重新进入此章节，有时仍会停播，按下键可继续。
+（3）这次从上次停播点读，停在“下篇--一、毛毛--我比小Q干得好”章节。现象同上。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【样例】导盲犬之梦：每段的段尾的两三个字，经常读的不正常。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有的重读，有的漏读。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全文朗读，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切到下一章朗读后，每次都播报下“第1页共x页”。不妥。=》自动切章节时可以不播报页码。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1559,7 +1997,7 @@
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,6 +2139,15 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2544,12 +2991,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3053,10 +3495,10 @@
         <v>42724</v>
       </c>
       <c r="F11" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3177,13 +3619,13 @@
         <v>40</v>
       </c>
       <c r="F38" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="5:6" ht="67.5">
       <c r="E39" s="52"/>
       <c r="F39" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3196,13 +3638,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O71" sqref="O71:P71"/>
+      <selection pane="bottomRight" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5458,7 +5900,7 @@
         <v>92</v>
       </c>
       <c r="G56" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H56" s="51" t="s">
         <v>41</v>
@@ -5532,7 +5974,7 @@
         <v>138</v>
       </c>
       <c r="G58" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H58" s="118" t="s">
         <v>227</v>
@@ -5688,7 +6130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="54">
+    <row r="63" spans="1:16" ht="67.5" hidden="1">
       <c r="A63" s="104">
         <v>61</v>
       </c>
@@ -5708,10 +6150,22 @@
         <v>177</v>
       </c>
       <c r="G63" s="97" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H63" s="51" t="s">
         <v>41</v>
+      </c>
+      <c r="L63" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="N63" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="O63" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P63" s="104" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="94.5">
@@ -5734,7 +6188,7 @@
         <v>177</v>
       </c>
       <c r="G64" s="97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H64" s="51" t="s">
         <v>41</v>
@@ -5786,7 +6240,7 @@
         <v>178</v>
       </c>
       <c r="G66" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H66" s="51" t="s">
         <v>41</v>
@@ -5814,10 +6268,10 @@
         <v>42698</v>
       </c>
       <c r="F67" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="120" t="s">
         <v>242</v>
-      </c>
-      <c r="G67" s="120" t="s">
-        <v>243</v>
       </c>
       <c r="I67" s="108" t="s">
         <v>221</v>
@@ -5833,7 +6287,7 @@
         <v>42724</v>
       </c>
       <c r="P67" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="108" customFormat="1" ht="94.5" hidden="1">
@@ -5856,7 +6310,7 @@
         <v>179</v>
       </c>
       <c r="G68" s="121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I68" s="108" t="s">
         <v>222</v>
@@ -5897,7 +6351,7 @@
         <v>223</v>
       </c>
       <c r="G69" s="120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I69" s="108" t="s">
         <v>221</v>
@@ -5906,14 +6360,14 @@
         <v>42724</v>
       </c>
       <c r="L69" s="108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N69" s="88"/>
       <c r="O69" s="113">
         <v>42724</v>
       </c>
       <c r="P69" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="108" customFormat="1" ht="40.5" hidden="1">
@@ -5960,7 +6414,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="81">
+    <row r="71" spans="1:16" ht="81" hidden="1">
       <c r="A71" s="104">
         <v>69</v>
       </c>
@@ -5980,7 +6434,7 @@
         <v>197</v>
       </c>
       <c r="G71" s="107" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H71" s="102" t="s">
         <v>41</v>
@@ -5995,7 +6449,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="104" customFormat="1" ht="81">
+    <row r="72" spans="1:16" s="104" customFormat="1" ht="81" hidden="1">
       <c r="A72" s="104">
         <v>70</v>
       </c>
@@ -6021,17 +6475,17 @@
         <v>41</v>
       </c>
       <c r="L72" s="104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N72" s="105"/>
       <c r="O72" s="53">
         <v>42729</v>
       </c>
       <c r="P72" s="104" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" s="104" customFormat="1" ht="27">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="104" customFormat="1" ht="40.5" hidden="1">
       <c r="A73" s="104">
         <v>71</v>
       </c>
@@ -6056,7 +6510,18 @@
       <c r="H73" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="N73" s="105"/>
+      <c r="L73" s="104" t="s">
+        <v>253</v>
+      </c>
+      <c r="N73" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="O73" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P73" s="104" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="74" spans="1:16" s="104" customFormat="1" ht="67.5">
       <c r="A74" s="104">
@@ -6078,35 +6543,238 @@
         <v>228</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H74" s="102" t="s">
         <v>41</v>
       </c>
       <c r="N74" s="105"/>
     </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="104">
+        <v>73</v>
+      </c>
+      <c r="B75" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D75" s="116">
+        <v>42724</v>
+      </c>
+      <c r="E75" s="103">
+        <v>42727</v>
+      </c>
+      <c r="F75" s="105" t="s">
+        <v>261</v>
+      </c>
+      <c r="G75" s="65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="54">
+      <c r="A76" s="104">
+        <v>74</v>
+      </c>
+      <c r="B76" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" s="116">
+        <v>42724</v>
+      </c>
+      <c r="E76" s="103">
+        <v>42727</v>
+      </c>
+      <c r="F76" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="G76" s="65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="27">
+      <c r="A77" s="104">
+        <v>75</v>
+      </c>
+      <c r="B77" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="116">
+        <v>42724</v>
+      </c>
+      <c r="E77" s="103">
+        <v>42727</v>
+      </c>
+      <c r="F77" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="G77" s="65" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="67.5">
+      <c r="A78" s="104">
+        <v>76</v>
+      </c>
+      <c r="B78" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" s="116">
+        <v>42724</v>
+      </c>
+      <c r="E78" s="103">
+        <v>42727</v>
+      </c>
+      <c r="F78" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="G78" s="65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="54">
+      <c r="A79" s="104">
+        <v>77</v>
+      </c>
+      <c r="B79" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" s="116">
+        <v>42724</v>
+      </c>
+      <c r="E79" s="103">
+        <v>42727</v>
+      </c>
+      <c r="F79" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="G79" s="65" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="27">
+      <c r="A80" s="104">
+        <v>78</v>
+      </c>
+      <c r="B80" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="116">
+        <v>42724</v>
+      </c>
+      <c r="E80" s="103">
+        <v>42727</v>
+      </c>
+      <c r="F80" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="G80" s="65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="81">
+      <c r="A81" s="104">
+        <v>79</v>
+      </c>
+      <c r="B81" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" s="116">
+        <v>42724</v>
+      </c>
+      <c r="E81" s="103">
+        <v>42728</v>
+      </c>
+      <c r="F81" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="98" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="104">
+        <v>80</v>
+      </c>
+      <c r="B82" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="116">
+        <v>42724</v>
+      </c>
+      <c r="E82" s="103">
+        <v>42728</v>
+      </c>
+      <c r="F82" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="27">
+      <c r="A83" s="104">
+        <v>81</v>
+      </c>
+      <c r="B83" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="116">
+        <v>42724</v>
+      </c>
+      <c r="E83" s="103">
+        <v>42728</v>
+      </c>
+      <c r="F83" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="G83" s="65" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:P74">
+  <autoFilter ref="A2:P83">
     <filterColumn colId="8">
-      <filters>
-        <filter val="返回"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="11">
-      <filters>
-        <filter val="是"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161222.xlsx
+++ b/测试单-电子书_daisy_161222.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="279">
   <si>
     <t>编号</t>
   </si>
@@ -1558,15 +1558,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从下一句读一样会有朗读页码和显示页码不一致的问题。而且daisy无法从设置的当前页开头读，必须从一个句子的开头读。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1985,6 +1977,26 @@
       </rPr>
       <t>切到下一章朗读后，每次都播报下“第1页共x页”。不妥。=》自动切章节时可以不播报页码。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同49(需要做固件的人员修改底层音频播放)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3641,10 +3653,10 @@
   <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K80" sqref="K80"/>
+      <selection pane="bottomRight" activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6130,7 +6142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="67.5" hidden="1">
+    <row r="63" spans="1:16" ht="54" hidden="1">
       <c r="A63" s="104">
         <v>61</v>
       </c>
@@ -6156,19 +6168,17 @@
         <v>41</v>
       </c>
       <c r="L63" s="104" t="s">
-        <v>256</v>
-      </c>
-      <c r="N63" s="105" t="s">
-        <v>258</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N63" s="105"/>
       <c r="O63" s="53">
         <v>42729</v>
       </c>
       <c r="P63" s="104" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="94.5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="94.5" hidden="1">
       <c r="A64" s="104">
         <v>62</v>
       </c>
@@ -6192,6 +6202,15 @@
       </c>
       <c r="H64" s="51" t="s">
         <v>41</v>
+      </c>
+      <c r="L64" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="O64" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P64" s="104" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="27">
@@ -6550,15 +6569,15 @@
       </c>
       <c r="N74" s="105"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" hidden="1">
       <c r="A75" s="104">
         <v>73</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C75" s="101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D75" s="116">
         <v>42724</v>
@@ -6567,10 +6586,19 @@
         <v>42727</v>
       </c>
       <c r="F75" s="105" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G75" s="65" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="L75" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="O75" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P75" s="104" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="54">
@@ -6578,10 +6606,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C76" s="101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D76" s="116">
         <v>42724</v>
@@ -6590,10 +6618,10 @@
         <v>42727</v>
       </c>
       <c r="F76" s="105" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G76" s="65" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="27">
@@ -6601,10 +6629,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C77" s="101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D77" s="116">
         <v>42724</v>
@@ -6613,10 +6641,10 @@
         <v>42727</v>
       </c>
       <c r="F77" s="105" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G77" s="65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="67.5">
@@ -6624,10 +6652,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C78" s="101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D78" s="116">
         <v>42724</v>
@@ -6636,10 +6664,10 @@
         <v>42727</v>
       </c>
       <c r="F78" s="105" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G78" s="65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="54">
@@ -6647,10 +6675,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C79" s="101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D79" s="116">
         <v>42724</v>
@@ -6659,10 +6687,10 @@
         <v>42727</v>
       </c>
       <c r="F79" s="105" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G79" s="65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="27">
@@ -6670,10 +6698,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C80" s="101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D80" s="116">
         <v>42724</v>
@@ -6682,21 +6710,21 @@
         <v>42727</v>
       </c>
       <c r="F80" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="G80" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="G80" s="65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="81">
+    </row>
+    <row r="81" spans="1:16" ht="81">
       <c r="A81" s="104">
         <v>79</v>
       </c>
       <c r="B81" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C81" s="101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D81" s="116">
         <v>42724</v>
@@ -6708,18 +6736,18 @@
         <v>33</v>
       </c>
       <c r="G81" s="98" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="27" hidden="1">
       <c r="A82" s="104">
         <v>80</v>
       </c>
       <c r="B82" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C82" s="101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D82" s="116">
         <v>42724</v>
@@ -6731,18 +6759,30 @@
         <v>33</v>
       </c>
       <c r="G82" s="65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="27">
+        <v>271</v>
+      </c>
+      <c r="L82" s="104" t="s">
+        <v>276</v>
+      </c>
+      <c r="N82" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="O82" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P82" s="104" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="27">
       <c r="A83" s="104">
         <v>81</v>
       </c>
       <c r="B83" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C83" s="101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D83" s="116">
         <v>42724</v>
@@ -6751,10 +6791,10 @@
         <v>42728</v>
       </c>
       <c r="F83" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G83" s="65" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/测试单-电子书_daisy_161222.xlsx
+++ b/测试单-电子书_daisy_161222.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="282">
   <si>
     <t>编号</t>
   </si>
@@ -1997,6 +1997,18 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟陈刚电话沟通，不修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3003,7 +3015,12 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3656,7 +3673,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O77" sqref="O77"/>
+      <selection pane="bottomRight" activeCell="L78" sqref="L78:O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6168,9 +6185,11 @@
         <v>41</v>
       </c>
       <c r="L63" s="104" t="s">
-        <v>274</v>
-      </c>
-      <c r="N63" s="105"/>
+        <v>276</v>
+      </c>
+      <c r="N63" s="105" t="s">
+        <v>280</v>
+      </c>
       <c r="O63" s="53">
         <v>42729</v>
       </c>
@@ -6624,7 +6643,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="27">
+    <row r="77" spans="1:16" ht="27" hidden="1">
       <c r="A77" s="104">
         <v>75</v>
       </c>
@@ -6645,6 +6664,15 @@
       </c>
       <c r="G77" s="65" t="s">
         <v>264</v>
+      </c>
+      <c r="L77" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="O77" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P77" s="104" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="67.5">
@@ -6669,8 +6697,14 @@
       <c r="G78" s="65" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="54">
+      <c r="L78" s="104"/>
+      <c r="N78" s="105"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="104" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="54" hidden="1">
       <c r="A79" s="104">
         <v>77</v>
       </c>
@@ -6691,6 +6725,17 @@
       </c>
       <c r="G79" s="65" t="s">
         <v>268</v>
+      </c>
+      <c r="L79" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="M79" s="104"/>
+      <c r="N79" s="105"/>
+      <c r="O79" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P79" s="104" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="27">
@@ -6809,12 +6854,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161222.xlsx
+++ b/测试单-电子书_daisy_161222.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="284">
   <si>
     <t>编号</t>
   </si>
@@ -2009,6 +2009,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断编码有问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3015,12 +3023,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3673,7 +3676,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L78" sqref="L78:O78"/>
+      <selection pane="bottomRight" activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6697,9 +6700,15 @@
       <c r="G78" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="L78" s="104"/>
-      <c r="N78" s="105"/>
-      <c r="O78" s="53"/>
+      <c r="L78" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="N78" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="O78" s="53">
+        <v>42729</v>
+      </c>
       <c r="P78" s="104" t="s">
         <v>279</v>
       </c>
@@ -6854,12 +6863,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161222.xlsx
+++ b/测试单-电子书_daisy_161222.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="288">
   <si>
     <t>编号</t>
   </si>
@@ -2017,6 +2017,22 @@
   </si>
   <si>
     <t>判断编码有问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前的机制自动和手动切换流程一模一样，如果在按键的时候保存一个全局变量来区分，某些情况可能导致全局变量不能清零，导致程序改播报的时候不播报。这个播报了也没什么大影响，不修改了吧。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3023,7 +3039,12 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3676,7 +3697,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N78" sqref="N78"/>
+      <selection pane="bottomRight" activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6136,7 +6157,7 @@
         <v>42724</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" hidden="1">
       <c r="A62" s="104">
         <v>60</v>
       </c>
@@ -6160,6 +6181,15 @@
       </c>
       <c r="H62" s="51" t="s">
         <v>41</v>
+      </c>
+      <c r="L62" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="O62" s="53">
+        <v>42724</v>
+      </c>
+      <c r="P62" s="104" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="54" hidden="1">
@@ -6678,7 +6708,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="67.5">
+    <row r="78" spans="1:16" ht="67.5" hidden="1">
       <c r="A78" s="104">
         <v>76</v>
       </c>
@@ -6747,7 +6777,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="27">
+    <row r="80" spans="1:16" ht="27" hidden="1">
       <c r="A80" s="104">
         <v>78</v>
       </c>
@@ -6768,6 +6798,19 @@
       </c>
       <c r="G80" s="65" t="s">
         <v>269</v>
+      </c>
+      <c r="L80" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="M80" s="104"/>
+      <c r="N80" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="O80" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P80" s="104" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="81">
@@ -6828,7 +6871,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="27">
+    <row r="83" spans="1:16" ht="108" hidden="1">
       <c r="A83" s="104">
         <v>81</v>
       </c>
@@ -6849,6 +6892,18 @@
       </c>
       <c r="G83" s="65" t="s">
         <v>273</v>
+      </c>
+      <c r="L83" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="N83" s="105" t="s">
+        <v>287</v>
+      </c>
+      <c r="O83" s="53">
+        <v>42729</v>
+      </c>
+      <c r="P83" s="104" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6863,12 +6918,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161222.xlsx
+++ b/测试单-电子书_daisy_161222.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="291">
   <si>
     <t>编号</t>
   </si>
@@ -2033,6 +2033,18 @@
   </si>
   <si>
     <t>目前的机制自动和手动切换流程一模一样，如果在按键的时候保存一个全局变量来区分，某些情况可能导致全局变量不能清零，导致程序改播报的时候不播报。这个播报了也没什么大影响，不修改了吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j/z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3039,12 +3051,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3697,7 +3704,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L83" sqref="L83"/>
+      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6003,8 +6010,8 @@
       <c r="M57" s="51"/>
       <c r="N57" s="51"/>
       <c r="O57" s="53"/>
-      <c r="P57" s="50" t="s">
-        <v>149</v>
+      <c r="P57" s="101" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="13" customFormat="1">
@@ -6038,6 +6045,9 @@
       <c r="M58" s="92"/>
       <c r="N58" s="93"/>
       <c r="O58" s="94"/>
+      <c r="P58" s="105" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="59" spans="1:16" s="88" customFormat="1" hidden="1">
       <c r="A59" s="104">
@@ -6290,6 +6300,9 @@
       <c r="H65" s="51" t="s">
         <v>41</v>
       </c>
+      <c r="P65" s="104" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="66" spans="1:16" ht="67.5">
       <c r="A66" s="104">
@@ -6620,6 +6633,9 @@
         <v>41</v>
       </c>
       <c r="N74" s="105"/>
+      <c r="P74" s="104" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="75" spans="1:16" hidden="1">
       <c r="A75" s="104">
@@ -6674,6 +6690,9 @@
       </c>
       <c r="G76" s="65" t="s">
         <v>262</v>
+      </c>
+      <c r="P76" s="104" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="27" hidden="1">
@@ -6834,6 +6853,9 @@
       </c>
       <c r="G81" s="98" t="s">
         <v>270</v>
+      </c>
+      <c r="P81" s="104" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="27" hidden="1">
@@ -6918,12 +6940,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_161222.xlsx
+++ b/测试单-电子书_daisy_161222.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="293">
   <si>
     <t>编号</t>
   </si>
@@ -2045,6 +2045,14 @@
   </si>
   <si>
     <t>j/z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加路径记忆根据seq判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3704,7 +3712,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
+      <selection pane="bottomRight" activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6041,10 +6049,16 @@
       </c>
       <c r="I58" s="51"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="51"/>
+      <c r="L58" s="102" t="s">
+        <v>291</v>
+      </c>
       <c r="M58" s="92"/>
-      <c r="N58" s="93"/>
-      <c r="O58" s="94"/>
+      <c r="N58" s="93" t="s">
+        <v>292</v>
+      </c>
+      <c r="O58" s="94">
+        <v>42731</v>
+      </c>
       <c r="P58" s="105" t="s">
         <v>289</v>
       </c>
